--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2013.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2013.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>113.5658314116</v>
+        <v>1135658.314116</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>945.4098163177</v>
+        <v>9454098.163177</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>365.5125363434</v>
+        <v>3655125.363434</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>123.2183189674</v>
+        <v>1232183.189674</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>483.8313764562</v>
+        <v>4838313.764562</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>128.555233784</v>
+        <v>1285552.33784</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>36.8679286824</v>
+        <v>368679.286824</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>60.883168731</v>
+        <v>608831.68731</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>96.4906804544</v>
+        <v>964906.804544</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>109.5851850221</v>
+        <v>1095851.850221</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>84.0683441916</v>
+        <v>840683.441916</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>216.4284563868</v>
+        <v>2164284.563868</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>109.7109467157</v>
+        <v>1097109.467157</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>46.9841620535</v>
+        <v>469841.620535</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>597.9774616828</v>
+        <v>5979774.616828</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>107.7970096821</v>
+        <v>1077970.096821</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>248.2136912266</v>
+        <v>2482136.912266</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>158.3402958161</v>
+        <v>1583402.958161</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>33.0579926203</v>
+        <v>330579.926203</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>55.8258659549</v>
+        <v>558258.659549</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>7469.1253674562</v>
+        <v>74691253.674562</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>249.7618090538</v>
+        <v>2497618.090538</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>99.008185941</v>
+        <v>990081.85941</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>362.0612016261</v>
+        <v>3620612.016261</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>431.9821975134</v>
+        <v>4319821.975134</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>270.5992625732</v>
+        <v>2705992.625732</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>236.0529146302</v>
+        <v>2360529.146302</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>7.2179732786</v>
+        <v>72179.732786</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>130.7378460047</v>
+        <v>1307378.460047</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>101.0724059407</v>
+        <v>1010724.059407</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>169.7662641165</v>
+        <v>1697662.641165</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>162.491522003</v>
+        <v>1624915.22003</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
